--- a/asp-net-console/Data/Factories.xlsx
+++ b/asp-net-console/Data/Factories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matuh\source\repos\Spectre2004\asp.net-learning\asp-net-console\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B38B33-FDB9-4B4F-8262-43533960877A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7F0E4B-50E2-4F14-A66A-817F17165F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="3870" windowWidth="24015" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -366,10 +366,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
